--- a/imageCreationExcel/back/darkyobi/darkyobi_3.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_3.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,30 +495,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7315178862677614</v>
+        <v>0.9143713994635518</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.086506959898271</v>
+        <v>16.47857779863042</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>23.66153024515958</v>
+        <v>0.9472466810976666</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_7_gamma0.73_contrast1.1_equalization24.0.jpg</t>
+          <t>1_E_gamma0.91_brightness16.0_contrast0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -528,16 +528,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7213662652518807</v>
+        <v>1.002835899249563</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8267332212552776</v>
+        <v>1.199619958625172</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>29.37103009638665</v>
+        <v>5.201420157957379</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_9_sharpness0.72_contrast0.83_equalization29.0.jpg</t>
+          <t>2_3_gamma1.0_contrast1.2_equalization5.2.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +570,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9437622703505139</v>
+        <v>26.72237706407079</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,22 +587,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5463277782813711</v>
+        <v>0.8011782326913017</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7.765124762021247</v>
+        <v>0.9053284773232427</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_C_contrast0.94_gamma0.55_equalization7.8.jpg</t>
+          <t>3_S_brightness27.0_gamma0.8_contrast0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +612,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8574993893272742</v>
+        <v>0.9642733921959471</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,22 +629,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9563541100999541</v>
+        <v>0.5962617508899627</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>19.0585795230616</v>
+        <v>18.88650829823519</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_8_gamma0.86_sharpness0.96_equalization19.0.jpg</t>
+          <t>4_3_contrast0.96_sharpness0.6_brightness19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,15 +663,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.787539225970266</v>
+        <v>0.8632211785422315</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.1861966959860027</v>
+        <v>1.036971393169101</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.372756440145302</v>
+        <v>30.75233394875816</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_S_gamma0.79_sharpness0.19_equalization6.4.jpg</t>
+          <t>5_C_gamma0.86_contrast1.0_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -701,34 +701,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18.6315746386385</v>
+        <v>0.1680741001555017</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9908699920592585</v>
+        <v>0.8401278280710527</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.7032120518251334</v>
+        <v>5.761294167134973</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_7_brightness19.0_gamma0.99_sharpness0.7.jpg</t>
+          <t>6_7_sharpness0.17_contrast0.84_equalization5.8.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8440838374706545</v>
+        <v>9.481182005121079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.06444812978019521</v>
+        <v>1.111360238026555</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.8869633182049685</v>
+        <v>0.435117450697328</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_S_contrast0.84_sharpness0.064_gamma0.89.jpg</t>
+          <t>7_T_brightness9.5_contrast1.1_sharpness0.44.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.7153290133495207</v>
+        <v>17.51296361961622</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8.917623454554549</v>
+        <v>0.9862987387602281</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.4034933645077815</v>
+        <v>1.03747981509639</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_I_gamma0.72_brightness8.9_sharpness0.4.jpg</t>
+          <t>8_C_brightness18.0_sharpness0.99_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8167966367621737</v>
+        <v>4.839844977410311</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>26.0112496437138</v>
+        <v>0.9410236813069156</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.396600343132004</v>
+        <v>0.7108151586429471</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_7_gamma0.82_brightness26.0_sharpness0.4.jpg</t>
+          <t>9_B_brightness4.8_contrast0.94_gamma0.71.jpg</t>
         </is>
       </c>
     </row>
@@ -873,30 +873,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0793392578012112</v>
+        <v>0.7092406279582718</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.695730237470062</v>
+        <v>0.5653246405615047</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.9231782844108236</v>
+        <v>22.35530576209323</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_B_sharpness0.079_brightness4.7_contrast0.92.jpg</t>
+          <t>10_B_sharpness0.71_gamma0.57_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9784067439536426</v>
+        <v>0.5202141022449394</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>20.89943604137288</v>
+        <v>2.939171527455219</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.9279913412924705</v>
+        <v>0.8556844860843205</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_gamma0.98_brightness21.0_contrast0.93.jpg</t>
+          <t>11_E_gamma0.52_brightness2.9_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -953,34 +953,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8721160963326361</v>
+        <v>0.8490058297402963</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.168023550027643</v>
+        <v>6.74782828161673</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>13.83816030036512</v>
+        <v>0.510067425503514</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_8_sharpness0.87_contrast1.2_equalization14.0.jpg</t>
+          <t>12_8_contrast0.85_brightness6.7_sharpness0.51.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8999826450846491</v>
+        <v>1.066922964526658</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15.75163410801493</v>
+        <v>1.607359021959818</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.2816325677638422</v>
+        <v>1.069031497260019</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_8_contrast0.9_brightness16.0_sharpness0.28.jpg</t>
+          <t>13_C_contrast1.1_brightness1.6_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,24 +1032,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8721074459975657</v>
+        <v>0.7019109358188083</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9862145621574605</v>
+        <v>1.048957215592133</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>14.70545174722657</v>
+        <v>13.13479286441292</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_E_contrast0.87_gamma0.99_equalization15.0.jpg</t>
+          <t>14_1_gamma0.7_contrast1.0_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,30 +1083,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12.53743770605647</v>
+        <v>9.029728405820268</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5788227157184154</v>
+        <v>0.9308844697891356</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.173087298964435</v>
+        <v>0.6954195413859576</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_E_brightness13.0_gamma0.58_contrast1.2.jpg</t>
+          <t>15_T_brightness9.0_contrast0.93_gamma0.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,16 +1116,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.088532671011261</v>
+        <v>10.44442359290892</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,22 +1133,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.085382012786002</v>
+        <v>0.8840395465143152</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>21.24813120903976</v>
+        <v>1.056318448818915</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_I_contrast1.1_gamma1.1_equalization21.0.jpg</t>
+          <t>16_C_brightness10.0_gamma0.88_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17.86806307519822</v>
+        <v>0.6655032308012031</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5169422211864301</v>
+        <v>0.2101070087698516</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8591340877178288</v>
+        <v>14.99140601671696</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_P_brightness18.0_gamma0.52_contrast0.86.jpg</t>
+          <t>17_3_gamma0.67_sharpness0.21_brightness15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>29.87636996760612</v>
+        <v>0.6235182053585028</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9279538530529684</v>
+        <v>0.8235632098003444</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.8442479636054834</v>
+        <v>17.45303374164618</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_3_brightness30.0_sharpness0.93_contrast0.84.jpg</t>
+          <t>18_S_sharpness0.62_gamma0.82_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>24.66400976184401</v>
+        <v>28.01064673207584</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9191602001085908</v>
+        <v>0.8155306590795798</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.726855404357832</v>
+        <v>0.992010758013979</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_3_brightness25.0_contrast0.92_gamma0.73.jpg</t>
+          <t>19_7_brightness28.0_contrast0.82_gamma0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,30 +1293,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8546601222166057</v>
+        <v>1.038212311191693</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.4792484260058507</v>
+        <v>12.76421835248148</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>30.82996869666414</v>
+        <v>0.3333590029981481</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_9_contrast0.85_sharpness0.48_equalization31.0.jpg</t>
+          <t>20_T_contrast1.0_brightness13.0_sharpness0.33.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.6200416394025794</v>
+        <v>1.00771141808913</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.101767484311988</v>
+        <v>1.143086024789171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>27.70238733649093</v>
+        <v>14.02480674699425</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_S_gamma0.62_contrast1.1_equalization28.0.jpg</t>
+          <t>21_9_gamma1.0_contrast1.1_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,30 +1377,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.175850410029771</v>
+        <v>0.9576705265262909</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.957135625378156</v>
+        <v>0.9990809202595796</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.958731789880768</v>
+        <v>23.58462805237509</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_C_contrast1.2_brightness3.0_gamma0.96.jpg</t>
+          <t>22_0_contrast0.96_gamma1.0_brightness24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,30 +1419,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8.774163414609047</v>
+        <v>15.91068149794344</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.148924158181349</v>
+        <v>0.8283521179277142</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.026337913215421</v>
+        <v>0.5555849690829677</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_2_brightness8.8_contrast1.1_sharpness0.026.jpg</t>
+          <t>23_S_brightness16.0_sharpness0.83_gamma0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.6624951911095731</v>
+        <v>0.988673823536409</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9634668470549512</v>
+        <v>1.142292047264729</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.09690959122127751</v>
+        <v>0.8706570944094395</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_1_gamma0.66_brightness0.96_sharpness0.097.jpg</t>
+          <t>24_E_gamma0.99_brightness1.1_contrast0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -1499,11 +1499,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.2736117342622781</v>
+        <v>1.176329612412561</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5101035731349837</v>
+        <v>0.996106737048164</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>14.73044336779634</v>
+        <v>30.73686404638567</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_I_sharpness0.27_gamma0.51_equalization15.0.jpg</t>
+          <t>25_I_contrast1.2_gamma1.0_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,24 +1536,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>28.41480331249202</v>
+        <v>0.09741525242569793</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5171100360250084</v>
+        <v>25.16005193421326</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.089609725171024</v>
+        <v>1.079758370739983</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_3_brightness28.0_gamma0.52_contrast1.1.jpg</t>
+          <t>26_C_sharpness0.097_brightness25.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,30 +1587,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9057355819289259</v>
+        <v>1.198007808287506</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.3358957964864444</v>
+        <v>0.9309766104419306</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>24.13138545312699</v>
+        <v>22.3804361917486</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_C_contrast0.91_sharpness0.34_equalization24.0.jpg</t>
+          <t>27_S_contrast1.2_gamma0.93_brightness22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9368790921989697</v>
+        <v>0.3174152353451771</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.3911636796830859</v>
+        <v>21.08177400733014</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.8193814060140545</v>
+        <v>0.786746347452846</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_C_gamma0.94_sharpness0.39_contrast0.82.jpg</t>
+          <t>28_P_sharpness0.32_brightness21.0_gamma0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.123963968473842</v>
+        <v>0.1094990595795118</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.02908187208430069</v>
+        <v>2.441696262973711</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>23.51049093480297</v>
+        <v>0.9489446500563428</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_B_contrast1.1_sharpness0.029_equalization24.0.jpg</t>
+          <t>29_3_sharpness0.11_brightness2.4_contrast0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8603913024400778</v>
+        <v>14.25038437748931</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.055969657694356</v>
+        <v>0.5677494423813345</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>20.0240501126703</v>
+        <v>0.9020359968366658</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_9_gamma0.86_contrast1.1_equalization20.0.jpg</t>
+          <t>30_S_brightness14.0_gamma0.57_contrast0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.6731824461928826</v>
+        <v>1.175830588299202</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.097565744963158</v>
+        <v>22.53366963035092</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>21.78194780454298</v>
+        <v>0.1389721587773901</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_1_sharpness0.67_gamma1.1_equalization22.0.jpg</t>
+          <t>31_B_contrast1.2_brightness23.0_sharpness0.14.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,24 +1788,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.935671026254024</v>
+        <v>1.110899361226639</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.189068895754104</v>
+        <v>0.1089367635869815</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>14.03444339219575</v>
+        <v>4.35385471749064</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_T_gamma0.94_contrast1.2_brightness14.0.jpg</t>
+          <t>32_1_contrast1.1_sharpness0.11_brightness4.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,24 +1830,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.04884701558272919</v>
+        <v>0.9930327251488333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.000523484555873</v>
+        <v>0.8755320267585175</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>24.74312741659795</v>
+        <v>8.136998622199814</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_T_sharpness0.049_contrast1.0_equalization25.0.jpg</t>
+          <t>33_P_gamma0.99_sharpness0.88_equalization8.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6880363304328847</v>
+        <v>19.20323101029535</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>20.21689533163729</v>
+        <v>1.07016129581598</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.86064742444542</v>
+        <v>0.1079797988064261</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_8_gamma0.69_brightness20.0_contrast0.86.jpg</t>
+          <t>34_9_brightness19.0_contrast1.1_sharpness0.11.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.108875780564982</v>
+        <v>0.1965573685463567</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8971413814288189</v>
+        <v>19.22789729893399</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>24.82034001364316</v>
+        <v>0.7375758721820067</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_I_contrast1.1_gamma0.9_equalization25.0.jpg</t>
+          <t>35_C_sharpness0.2_brightness19.0_gamma0.74.jpg</t>
         </is>
       </c>
     </row>
@@ -1961,34 +1961,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.3947883707323703</v>
+        <v>29.84755253484493</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.7682043479822107</v>
+        <v>0.9302128597743382</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>25.547925322384</v>
+        <v>0.7488816793603804</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_8_sharpness0.39_gamma0.77_equalization26.0.jpg</t>
+          <t>36_8_brightness30.0_contrast0.93_sharpness0.75.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.4642977376753995</v>
+        <v>1.17414089299267</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.5438763607256404</v>
+        <v>1.470476547167925</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>21.30992976445849</v>
+        <v>1.051316876725843</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_9_sharpness0.46_gamma0.54_brightness21.0.jpg</t>
+          <t>37_B_contrast1.2_brightness1.5_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.1028327573070785</v>
+        <v>8.009460287407354</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.139355855910321</v>
+        <v>0.8696780521810138</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>30.89121066469584</v>
+        <v>0.8703013608424881</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_E_sharpness0.1_contrast1.1_equalization31.0.jpg</t>
+          <t>38_7_brightness8.0_gamma0.87_sharpness0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.4642310904331834</v>
+        <v>0.7871542666609525</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.946526031866201</v>
+        <v>9.477484229420837</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.6024454734097566</v>
+        <v>0.5215081117208163</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_1_sharpness0.46_brightness1.9_gamma0.6.jpg</t>
+          <t>39_8_sharpness0.79_brightness9.5_gamma0.52.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,30 +2133,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8473173612662477</v>
+        <v>0.02218483327890497</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.940177942348237</v>
+        <v>1.879224526058711</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>22.39804021245233</v>
+        <v>0.5590097319897684</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_9_sharpness0.85_gamma0.94_equalization22.0.jpg</t>
+          <t>40_8_sharpness0.022_brightness1.9_gamma0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,30 +2175,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8965974311014591</v>
+        <v>0.9570172887937396</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.3507881023576009</v>
+        <v>12.16861159475038</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4.127760307529534</v>
+        <v>0.876145125968506</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_P_contrast0.9_sharpness0.35_equalization4.1.jpg</t>
+          <t>41_I_contrast0.96_brightness12.0_sharpness0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.032165048041464</v>
+        <v>0.8827199036076749</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5061998236583004</v>
+        <v>0.1065923048301717</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>15.85687484144538</v>
+        <v>14.30817876141404</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_I_gamma1.0_sharpness0.51_equalization16.0.jpg</t>
+          <t>42_8_gamma0.88_sharpness0.11_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,24 +2250,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.857074298609778</v>
+        <v>0.9753619794722593</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9173491894847415</v>
+        <v>0.6679154313032711</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>15.86822781211785</v>
+        <v>23.9950121544862</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_I_gamma0.86_sharpness0.92_equalization16.0.jpg</t>
+          <t>43_8_contrast0.98_gamma0.67_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.3231743207939665</v>
+        <v>14.716499140774</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8576085528187244</v>
+        <v>0.836728754744129</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.649471495165507</v>
+        <v>0.9004515160310406</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_S_sharpness0.32_contrast0.86_gamma0.65.jpg</t>
+          <t>44_E_brightness15.0_contrast0.84_gamma0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,24 +2334,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.3235009658355968</v>
+        <v>1.110107953047972</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9108028754124151</v>
+        <v>0.9020154711621231</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>17.47730355614092</v>
+        <v>27.80078391188424</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_C_sharpness0.32_contrast0.91_equalization17.0.jpg</t>
+          <t>45_S_contrast1.1_sharpness0.9_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9310787148820775</v>
+        <v>25.70085423717651</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.3754653817393223</v>
+        <v>0.6914835666824566</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>10.93836335497722</v>
+        <v>0.5124643586648338</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_7_gamma0.93_sharpness0.38_brightness11.0.jpg</t>
+          <t>46_C_brightness26.0_gamma0.69_sharpness0.51.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,30 +2427,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.055815364125182</v>
+        <v>0.8755450271769849</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.7605372194587745</v>
+        <v>0.3389944804013568</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.7411638958981566</v>
+        <v>20.4478266597134</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_9_contrast1.1_gamma0.76_sharpness0.74.jpg</t>
+          <t>47_E_contrast0.88_sharpness0.34_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>13.06815532831651</v>
+        <v>0.935549912908796</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8494881874810676</v>
+        <v>0.04374634393778964</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.9743702867501001</v>
+        <v>21.15060955570167</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_S_brightness13.0_gamma0.85_sharpness0.97.jpg</t>
+          <t>48_0_contrast0.94_sharpness0.044_brightness21.0.jpg</t>
         </is>
       </c>
     </row>
